--- a/后端/res_file/spide_data/游戏/2025032712/游戏_巫师3/BV1KJ411k7K5_紫雨carol巫师3狂猎4K高清重新制作版石之心血与酒全系列_2025032712.xlsx
+++ b/后端/res_file/spide_data/游戏/2025032712/游戏_巫师3/BV1KJ411k7K5_紫雨carol巫师3狂猎4K高清重新制作版石之心血与酒全系列_2025032712.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="194">
   <si>
     <t>bvid</t>
   </si>
@@ -46,730 +46,573 @@
     <t>time</t>
   </si>
   <si>
+    <t>emotion</t>
+  </si>
+  <si>
     <t>BV1KJ411k7K5</t>
   </si>
   <si>
-    <t>697825268</t>
-  </si>
-  <si>
     <t>想取名字吗笑死</t>
   </si>
   <si>
+    <t>gklutz</t>
+  </si>
+  <si>
+    <t>举报我的sqj</t>
+  </si>
+  <si>
+    <t>孤独的牢生</t>
+  </si>
+  <si>
+    <t>摧诶城</t>
+  </si>
+  <si>
+    <t>戴眼镜的羊头</t>
+  </si>
+  <si>
+    <t>cqfljz</t>
+  </si>
+  <si>
+    <t>下棋从不吃鸡</t>
+  </si>
+  <si>
+    <t>欧阳章</t>
+  </si>
+  <si>
+    <t>不愿透露姓氏的UP粥</t>
+  </si>
+  <si>
+    <t>来一杯柃檬水</t>
+  </si>
+  <si>
+    <t>没有椅子的莱纳</t>
+  </si>
+  <si>
+    <t>冻小鱼丶</t>
+  </si>
+  <si>
+    <t>落千山洛洛三千</t>
+  </si>
+  <si>
+    <t>Airuike034</t>
+  </si>
+  <si>
+    <t>Di球的过客</t>
+  </si>
+  <si>
+    <t>-Vvvcitorial-</t>
+  </si>
+  <si>
+    <t>轩而花朝</t>
+  </si>
+  <si>
+    <t>弃暗投明233</t>
+  </si>
+  <si>
+    <t>微信电脑版</t>
+  </si>
+  <si>
+    <t>交界地战神</t>
+  </si>
+  <si>
+    <t>D一B0Y</t>
+  </si>
+  <si>
+    <t>Giannis___</t>
+  </si>
+  <si>
+    <t>第三十一使徒</t>
+  </si>
+  <si>
+    <t>37688673</t>
+  </si>
+  <si>
+    <t>小猪佩琪的朱小猪</t>
+  </si>
+  <si>
+    <t>小隐星_</t>
+  </si>
+  <si>
+    <t>两只羊驼__</t>
+  </si>
+  <si>
+    <t>坚持是件很酷的事</t>
+  </si>
+  <si>
+    <t>我卡密呢</t>
+  </si>
+  <si>
+    <t>虾可以在一个锅里生活</t>
+  </si>
+  <si>
+    <t>南枝惊鹊Que</t>
+  </si>
+  <si>
+    <t>牧神午后--</t>
+  </si>
+  <si>
+    <t>bili_96805391571</t>
+  </si>
+  <si>
+    <t>Ht__tp</t>
+  </si>
+  <si>
+    <t>逢考必过的兄弟</t>
+  </si>
+  <si>
+    <t>河北下雨</t>
+  </si>
+  <si>
+    <t>爆米花sss</t>
+  </si>
+  <si>
+    <t>冬夏师徒2</t>
+  </si>
+  <si>
+    <t>熬夜的企鹅_</t>
+  </si>
+  <si>
+    <t>一条有女儿的河</t>
+  </si>
+  <si>
+    <t>abcdefghijklily</t>
+  </si>
+  <si>
+    <t>朝暮皆为田舍郎</t>
+  </si>
+  <si>
+    <t>眼神真不好</t>
+  </si>
+  <si>
+    <t>太阳风暴英雄</t>
+  </si>
+  <si>
+    <t>该说晚安么i</t>
+  </si>
+  <si>
+    <t>热血篮青</t>
+  </si>
+  <si>
+    <t>我真的不吃芹菜额</t>
+  </si>
+  <si>
+    <t>一百度的冰西瓜</t>
+  </si>
+  <si>
+    <t>运命の蛙</t>
+  </si>
+  <si>
+    <t>xehsdio</t>
+  </si>
+  <si>
+    <t>严力力</t>
+  </si>
+  <si>
+    <t>苏比克大魔王</t>
+  </si>
+  <si>
+    <t>Stephen_1115</t>
+  </si>
+  <si>
+    <t>windingjojo</t>
+  </si>
+  <si>
+    <t>觅我于万千繁星</t>
+  </si>
+  <si>
+    <t>一千0一岁</t>
+  </si>
+  <si>
+    <t>中单预言家</t>
+  </si>
+  <si>
     <t>男</t>
   </si>
   <si>
+    <t>保密</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
     <t>未知</t>
   </si>
   <si>
     <t>服了一群精虫上脑的东西，不谈论剧情在这里发春</t>
   </si>
   <si>
-    <t>2025-03-17 17:27:35</t>
-  </si>
-  <si>
-    <t>4982100</t>
-  </si>
-  <si>
-    <t>gklutz</t>
-  </si>
-  <si>
-    <t>保密</t>
-  </si>
-  <si>
     <t>[滑稽]此时的猴猴还在走清纯路线</t>
   </si>
   <si>
-    <t>2025-03-15 11:34:12</t>
-  </si>
-  <si>
-    <t>1737701289</t>
-  </si>
-  <si>
-    <t>举报我的sqj</t>
-  </si>
-  <si>
     <t>这b游戏全是剧情 我找了半天没看到打架片段</t>
   </si>
   <si>
-    <t>2025-03-11 12:16:39</t>
-  </si>
-  <si>
-    <t>1449872692</t>
-  </si>
-  <si>
-    <t>孤独的牢生</t>
-  </si>
-  <si>
     <t>感觉这牌打的好无聊啊，打不赢，进不了主线吗？</t>
   </si>
   <si>
-    <t>2025-02-24 17:50:16</t>
-  </si>
-  <si>
-    <t>300233028</t>
-  </si>
-  <si>
-    <t>摧诶城</t>
-  </si>
-  <si>
     <t>怎么挂ai字幕呀</t>
   </si>
   <si>
-    <t>2025-02-21 13:16:23</t>
-  </si>
-  <si>
-    <t>16571997</t>
-  </si>
-  <si>
-    <t>戴眼镜的羊头</t>
-  </si>
-  <si>
     <t>女王可能用的娜塔莉波特曼的脸模，做了一些调整，双颊那两颗痣太有辨识度了，而且很像波特曼星战女皇的感觉</t>
   </si>
   <si>
-    <t>2025-02-20 00:16:40</t>
-  </si>
-  <si>
-    <t>17899031</t>
-  </si>
-  <si>
-    <t>cqfljz</t>
-  </si>
-  <si>
     <t>我还以为是啥，就是裸个背。</t>
   </si>
   <si>
-    <t>2025-02-14 23:46:03</t>
-  </si>
-  <si>
-    <t>159084986</t>
-  </si>
-  <si>
-    <t>下棋从不吃鸡</t>
-  </si>
-  <si>
     <t>紫雨快40岁了吧</t>
   </si>
   <si>
-    <t>2025-02-11 00:50:33</t>
-  </si>
-  <si>
-    <t>1569916120</t>
-  </si>
-  <si>
-    <t>欧阳章</t>
-  </si>
-  <si>
     <t>紫雨的画面设置是啥啊 为什么我的全高但是看感觉好奇怪啊</t>
   </si>
   <si>
-    <t>2025-01-28 02:02:04</t>
-  </si>
-  <si>
-    <t>389685337</t>
-  </si>
-  <si>
-    <t>不愿透露姓氏的UP粥</t>
-  </si>
-  <si>
     <t>第一次认真看up主玩游戏，说话的时机拿捏的很到位，也不啰嗦，很好很强大</t>
   </si>
   <si>
-    <t>2025-01-15 22:02:53</t>
-  </si>
-  <si>
-    <t>209395388</t>
-  </si>
-  <si>
-    <t>来一杯柃檬水</t>
-  </si>
-  <si>
     <t>好可惜，我以为紫雨姐姐玩的是全探索，有没有和紫雨姐姐一样厉害的全探索up主推荐一下</t>
   </si>
   <si>
-    <t>2025-01-11 10:02:03</t>
-  </si>
-  <si>
-    <t>1349956956</t>
-  </si>
-  <si>
-    <t>没有椅子的莱纳</t>
-  </si>
-  <si>
     <t>咱妈身体健康</t>
   </si>
   <si>
-    <t>2025-01-10 22:35:30</t>
-  </si>
-  <si>
-    <t>445962126</t>
-  </si>
-  <si>
-    <t>冻小鱼丶</t>
-  </si>
-  <si>
     <t>紫雨的视频要怎么连接是一个主线一个支线看还是怎么看视频里的好多对话选项和道具我这里都没有</t>
   </si>
   <si>
-    <t>2024-12-27 20:55:05</t>
-  </si>
-  <si>
-    <t>355690865</t>
-  </si>
-  <si>
-    <t>落千山洛洛三千</t>
-  </si>
-  <si>
     <t>喜欢涩涩的紫雨[滑稽][滑稽][滑稽]</t>
   </si>
   <si>
-    <t>2024-12-25 17:29:04</t>
-  </si>
-  <si>
-    <t>433540777</t>
-  </si>
-  <si>
-    <t>Airuike034</t>
-  </si>
-  <si>
     <t>永远支持紫雨</t>
   </si>
   <si>
-    <t>2024-12-14 22:42:08</t>
-  </si>
-  <si>
-    <t>1167922546</t>
-  </si>
-  <si>
-    <t>Di球的过客</t>
-  </si>
-  <si>
     <t>这游戏断断续续玩了3年，今天2024年11月终于完结了。这游戏的精彩之处在于庞大的支线小任务，故事精彩极了。</t>
   </si>
   <si>
-    <t>2024-11-23 00:16:37</t>
-  </si>
-  <si>
-    <t>160055236</t>
-  </si>
-  <si>
-    <t>-Vvvcitorial-</t>
-  </si>
-  <si>
     <t>请问为啥我升级这么慢，做完男爵才5级，有没有佬知道啊[大哭][大哭][大哭][大哭][大哭]是因为难度不一样嘛</t>
   </si>
   <si>
-    <t>2024-11-11 19:41:51</t>
-  </si>
-  <si>
-    <t>87128555</t>
-  </si>
-  <si>
-    <t>轩而花朝</t>
-  </si>
-  <si>
     <t>巫师的dlc游玩顺序是什么？主线我已经差不多推到了救完丹德里恩 我看有人说主线与dlc是穿插着的</t>
   </si>
   <si>
-    <t>2024-10-31 23:18:45</t>
-  </si>
-  <si>
-    <t>8860735</t>
-  </si>
-  <si>
-    <t>弃暗投明233</t>
-  </si>
-  <si>
     <t>紫雨，你就是我的神！！！！！！</t>
   </si>
   <si>
-    <t>2024-10-20 18:04:22</t>
-  </si>
-  <si>
-    <t>32967902</t>
-  </si>
-  <si>
-    <t>微信电脑版</t>
-  </si>
-  <si>
     <t>哎呀19年还觉得动作没啥，玩了别的游戏再重温巫师3感觉，战斗太别扭了，进入战斗状态的主角操作太多不可控动作，轻击要有一个转身的前摇，还没打出去就要先挨揍</t>
   </si>
   <si>
-    <t>2024-10-06 02:16:58</t>
-  </si>
-  <si>
-    <t>28512313</t>
-  </si>
-  <si>
-    <t>交界地战神</t>
-  </si>
-  <si>
     <t>关于雷吉斯小说里面有说，寻女小分队一员，吸血鬼，仙尼德岛政变被术士兄弟会的威戈佛特兹（人类术士天花板）烧成了灰，游戏里面复活了</t>
   </si>
   <si>
-    <t>2024-09-17 09:20:49</t>
-  </si>
-  <si>
-    <t>85691772</t>
-  </si>
-  <si>
-    <t>D一B0Y</t>
-  </si>
-  <si>
     <t>我去，紫猴猴还有巫师3？</t>
   </si>
   <si>
-    <t>2024-09-10 11:22:36</t>
-  </si>
-  <si>
-    <t>3546611881872107</t>
-  </si>
-  <si>
-    <t>Giannis___</t>
-  </si>
-  <si>
     <t>还有机会更么😭</t>
   </si>
   <si>
-    <t>2024-09-03 03:32:26</t>
-  </si>
-  <si>
-    <t>278092281</t>
-  </si>
-  <si>
-    <t>第三十一使徒</t>
-  </si>
-  <si>
     <t>主角声音好虚</t>
   </si>
   <si>
-    <t>2024-08-19 21:58:21</t>
-  </si>
-  <si>
     <t>2024年8月11日留言</t>
-  </si>
-  <si>
-    <t>2024-08-11 21:02:27</t>
-  </si>
-  <si>
-    <t>3493108492798688</t>
-  </si>
-  <si>
-    <t>37688673</t>
   </si>
   <si>
     <t>紫猴猴剪攻略视频去了，应该注意不到我，我发一个特别刺激的给大家看看吧，保证你们过目不忘~~[大笑][大笑][大笑][大笑]
 https://www.bilibili.com/video/BV17oYFe6E3r/?share_source=copy_web&amp;vd_source=577f07576c74201a189775d3516f6d23</t>
   </si>
   <si>
+    <t>https://www.xianyudanji.net?aff=203416这个网站算是最全的游戏网站，而且一直在更新DLC，记得注册签到就可以白嫖，有一些暗黑4啥的大型游戏都是免费，当然这个是付费的好处就是游戏最全DLC最全更新最快，第二个是switch520这个网站是大佬开的，全部免费不用注册，非常良心，缺点就是DIC和游戏不算太全 [脱单doge][脱单doge]第一个资源最全但要付费，每天签到也可以白嫖，第二个可以直接搞，但资源不全。</t>
+  </si>
+  <si>
+    <t>2024年8月1日初次游玩巫师三</t>
+  </si>
+  <si>
+    <t>怎么快速移动啊，我傻了，我都是马腿跑断[笑哭]</t>
+  </si>
+  <si>
+    <t>翻译不太行，有的地方表达的意思还是不太准</t>
+  </si>
+  <si>
+    <t>这游戏不看剧情可以玩吗</t>
+  </si>
+  <si>
+    <t>金色是什么套装啊</t>
+  </si>
+  <si>
+    <t>UP主声音真的好听  这游戏为啥我玩不下去啊</t>
+  </si>
+  <si>
+    <t>为什么紫雨的简中翻译和我的不一样呢[tv_皱眉][tv_皱眉]</t>
+  </si>
+  <si>
+    <t>弃了弃了战斗系统太垃圾废话太多了</t>
+  </si>
+  <si>
+    <t>紫雨还会试试中配巫师3吗[微笑]</t>
+  </si>
+  <si>
+    <t>从老戴那推荐过来的[doge][doge]</t>
+  </si>
+  <si>
+    <t>无敌，这种完整的初见视频真是稀少物种，可惜主线不是初见</t>
+  </si>
+  <si>
+    <t>你的杰洛特还经常刮胡子啊，感觉和我的不是一个人[笑哭][笑哭][笑哭]</t>
+  </si>
+  <si>
+    <t>巫师三玩的时候只顾着打牌了，</t>
+  </si>
+  <si>
+    <t>俺也一样</t>
+  </si>
+  <si>
+    <t>最喜欢的长视频单机游戏UP主，没有之一。</t>
+  </si>
+  <si>
+    <t>巫师真好玩啊</t>
+  </si>
+  <si>
+    <t>2024年，期待继续更新呀[doge]</t>
+  </si>
+  <si>
+    <t>皇帝是泰温演员配音，血腥男爵是拜拉席恩演员配音，？</t>
+  </si>
+  <si>
+    <t>好期待再来一遍中文配音的，二周目</t>
+  </si>
+  <si>
+    <t>为什么紫雨攻略里面没有特莉丝剧情？</t>
+  </si>
+  <si>
+    <t>没做完实在是太可惜了，真的做得很好，很好看</t>
+  </si>
+  <si>
+    <t>PAAaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>血条是银色就用银剑，反之钢剑。</t>
+  </si>
+  <si>
+    <t>血与酒3杀结局，女爵交互太少了，无法共情，还说杰洛特不如狗，就很别扭，女爵或许是个好妹妹，可在我眼里不是好统治者。</t>
+  </si>
+  <si>
+    <t>谁知道哪里怪物最多？</t>
+  </si>
+  <si>
+    <t>主线不更新了吗[笑哭]</t>
+  </si>
+  <si>
+    <t>紫雨这声音真是好听</t>
+  </si>
+  <si>
+    <t>西方套路贷的悲剧故事,艺术形式上做了美化,不过讲真的,写的很棒</t>
+  </si>
+  <si>
+    <t>才玩八小时怎么才五级，主线到了家家有本难念的经。。。</t>
+  </si>
+  <si>
+    <t>结局玩到采集曼德拉草的时候，真的觉得有点泪目，当初杰洛特初次遇到雷吉斯就是和丹德里恩，卓尔坦他们喝雷吉斯用曼德拉草酿的酒，可以说首尾呼应了，再配上雷吉斯最后说说的话，回首这一路经历，真的让人感慨万分。</t>
+  </si>
+  <si>
+    <t>紫雨搞得这个视频我觉得比美剧猎魔人第三季好看，拍的啥啊</t>
+  </si>
+  <si>
+    <t>这游戏我买了好多年，没玩，也不能直播，可惜</t>
+  </si>
+  <si>
+    <t>2025-03-17 17:27:35</t>
+  </si>
+  <si>
+    <t>2025-03-15 11:34:12</t>
+  </si>
+  <si>
+    <t>2025-03-11 12:16:39</t>
+  </si>
+  <si>
+    <t>2025-02-24 17:50:16</t>
+  </si>
+  <si>
+    <t>2025-02-21 13:16:23</t>
+  </si>
+  <si>
+    <t>2025-02-20 00:16:40</t>
+  </si>
+  <si>
+    <t>2025-02-14 23:46:03</t>
+  </si>
+  <si>
+    <t>2025-02-11 00:50:33</t>
+  </si>
+  <si>
+    <t>2025-01-28 02:02:04</t>
+  </si>
+  <si>
+    <t>2025-01-15 22:02:53</t>
+  </si>
+  <si>
+    <t>2025-01-11 10:02:03</t>
+  </si>
+  <si>
+    <t>2025-01-10 22:35:30</t>
+  </si>
+  <si>
+    <t>2024-12-27 20:55:05</t>
+  </si>
+  <si>
+    <t>2024-12-25 17:29:04</t>
+  </si>
+  <si>
+    <t>2024-12-14 22:42:08</t>
+  </si>
+  <si>
+    <t>2024-11-23 00:16:37</t>
+  </si>
+  <si>
+    <t>2024-11-11 19:41:51</t>
+  </si>
+  <si>
+    <t>2024-10-31 23:18:45</t>
+  </si>
+  <si>
+    <t>2024-10-20 18:04:22</t>
+  </si>
+  <si>
+    <t>2024-10-06 02:16:58</t>
+  </si>
+  <si>
+    <t>2024-09-17 09:20:49</t>
+  </si>
+  <si>
+    <t>2024-09-10 11:22:36</t>
+  </si>
+  <si>
+    <t>2024-09-03 03:32:26</t>
+  </si>
+  <si>
+    <t>2024-08-19 21:58:21</t>
+  </si>
+  <si>
+    <t>2024-08-11 21:02:27</t>
+  </si>
+  <si>
     <t>2024-08-07 20:06:56</t>
   </si>
   <si>
-    <t>1845150042</t>
-  </si>
-  <si>
-    <t>小猪佩琪的朱小猪</t>
-  </si>
-  <si>
-    <t>https://www.xianyudanji.net?aff=203416这个网站算是最全的游戏网站，而且一直在更新DLC，记得注册签到就可以白嫖，有一些暗黑4啥的大型游戏都是免费，当然这个是付费的好处就是游戏最全DLC最全更新最快，第二个是switch520这个网站是大佬开的，全部免费不用注册，非常良心，缺点就是DIC和游戏不算太全 [脱单doge][脱单doge]第一个资源最全但要付费，每天签到也可以白嫖，第二个可以直接搞，但资源不全。</t>
-  </si>
-  <si>
     <t>2024-08-05 11:13:13</t>
   </si>
   <si>
-    <t>272937464</t>
-  </si>
-  <si>
-    <t>小隐星_</t>
-  </si>
-  <si>
-    <t>2024年8月1日初次游玩巫师三</t>
-  </si>
-  <si>
     <t>2024-08-01 21:55:42</t>
   </si>
   <si>
-    <t>3546710376712558</t>
-  </si>
-  <si>
-    <t>两只羊驼__</t>
-  </si>
-  <si>
-    <t>怎么快速移动啊，我傻了，我都是马腿跑断[笑哭]</t>
-  </si>
-  <si>
     <t>2024-07-27 00:42:16</t>
   </si>
   <si>
-    <t>406768837</t>
-  </si>
-  <si>
-    <t>坚持是件很酷的事</t>
-  </si>
-  <si>
-    <t>翻译不太行，有的地方表达的意思还是不太准</t>
-  </si>
-  <si>
     <t>2024-07-10 18:33:59</t>
   </si>
   <si>
-    <t>479278033</t>
-  </si>
-  <si>
-    <t>我卡密呢</t>
-  </si>
-  <si>
-    <t>这游戏不看剧情可以玩吗</t>
-  </si>
-  <si>
     <t>2024-07-08 02:12:26</t>
   </si>
   <si>
-    <t>695364788</t>
-  </si>
-  <si>
-    <t>虾可以在一个锅里生活</t>
-  </si>
-  <si>
-    <t>金色是什么套装啊</t>
-  </si>
-  <si>
     <t>2024-06-19 01:28:42</t>
   </si>
   <si>
-    <t>179648005</t>
-  </si>
-  <si>
-    <t>南枝惊鹊Que</t>
-  </si>
-  <si>
-    <t>UP主声音真的好听  这游戏为啥我玩不下去啊</t>
-  </si>
-  <si>
     <t>2024-06-09 18:05:46</t>
   </si>
   <si>
-    <t>53277986</t>
-  </si>
-  <si>
-    <t>牧神午后--</t>
-  </si>
-  <si>
-    <t>为什么紫雨的简中翻译和我的不一样呢[tv_皱眉][tv_皱眉]</t>
-  </si>
-  <si>
     <t>2024-05-20 00:08:00</t>
   </si>
   <si>
-    <t>471807823</t>
-  </si>
-  <si>
-    <t>bili_96805391571</t>
-  </si>
-  <si>
-    <t>弃了弃了战斗系统太垃圾废话太多了</t>
-  </si>
-  <si>
     <t>2024-05-18 15:25:33</t>
   </si>
   <si>
-    <t>389611312</t>
-  </si>
-  <si>
-    <t>Ht__tp</t>
-  </si>
-  <si>
-    <t>紫雨还会试试中配巫师3吗[微笑]</t>
-  </si>
-  <si>
     <t>2024-05-14 19:59:59</t>
   </si>
   <si>
-    <t>282944200</t>
-  </si>
-  <si>
-    <t>逢考必过的兄弟</t>
-  </si>
-  <si>
-    <t>从老戴那推荐过来的[doge][doge]</t>
-  </si>
-  <si>
     <t>2024-05-01 19:27:27</t>
   </si>
   <si>
-    <t>435417830</t>
-  </si>
-  <si>
-    <t>河北下雨</t>
-  </si>
-  <si>
-    <t>无敌，这种完整的初见视频真是稀少物种，可惜主线不是初见</t>
-  </si>
-  <si>
     <t>2024-04-06 12:45:29</t>
   </si>
   <si>
-    <t>3435138</t>
-  </si>
-  <si>
-    <t>爆米花sss</t>
-  </si>
-  <si>
-    <t>你的杰洛特还经常刮胡子啊，感觉和我的不是一个人[笑哭][笑哭][笑哭]</t>
-  </si>
-  <si>
     <t>2024-04-04 12:45:56</t>
   </si>
   <si>
-    <t>66899687</t>
-  </si>
-  <si>
-    <t>冬夏师徒2</t>
-  </si>
-  <si>
-    <t>巫师三玩的时候只顾着打牌了，</t>
-  </si>
-  <si>
     <t>2024-03-25 15:17:15</t>
   </si>
   <si>
-    <t>475773516</t>
-  </si>
-  <si>
-    <t>熬夜的企鹅_</t>
-  </si>
-  <si>
-    <t>俺也一样</t>
-  </si>
-  <si>
     <t>2024-02-22 16:10:04</t>
   </si>
   <si>
-    <t>30145723</t>
-  </si>
-  <si>
-    <t>一条有女儿的河</t>
-  </si>
-  <si>
-    <t>最喜欢的长视频单机游戏UP主，没有之一。</t>
-  </si>
-  <si>
     <t>2024-02-18 18:26:39</t>
   </si>
   <si>
-    <t>524949635</t>
-  </si>
-  <si>
-    <t>abcdefghijklily</t>
-  </si>
-  <si>
-    <t>巫师真好玩啊</t>
-  </si>
-  <si>
     <t>2024-02-12 00:36:58</t>
   </si>
   <si>
-    <t>264531083</t>
-  </si>
-  <si>
-    <t>朝暮皆为田舍郎</t>
-  </si>
-  <si>
-    <t>2024年，期待继续更新呀[doge]</t>
-  </si>
-  <si>
     <t>2024-01-23 17:12:02</t>
   </si>
   <si>
-    <t>5830474</t>
-  </si>
-  <si>
-    <t>眼神真不好</t>
-  </si>
-  <si>
-    <t>皇帝是泰温演员配音，血腥男爵是拜拉席恩演员配音，？</t>
-  </si>
-  <si>
     <t>2023-12-26 21:39:50</t>
   </si>
   <si>
-    <t>321697906</t>
-  </si>
-  <si>
-    <t>太阳风暴英雄</t>
-  </si>
-  <si>
-    <t>好期待再来一遍中文配音的，二周目</t>
-  </si>
-  <si>
     <t>2023-12-15 10:14:32</t>
   </si>
   <si>
-    <t>679219893</t>
-  </si>
-  <si>
-    <t>该说晚安么i</t>
-  </si>
-  <si>
-    <t>为什么紫雨攻略里面没有特莉丝剧情？</t>
-  </si>
-  <si>
     <t>2023-12-08 22:40:19</t>
   </si>
   <si>
-    <t>425540067</t>
-  </si>
-  <si>
-    <t>热血篮青</t>
-  </si>
-  <si>
-    <t>没做完实在是太可惜了，真的做得很好，很好看</t>
-  </si>
-  <si>
     <t>2023-12-05 21:29:23</t>
   </si>
   <si>
-    <t>3461570824767513</t>
-  </si>
-  <si>
-    <t>我真的不吃芹菜额</t>
-  </si>
-  <si>
-    <t>PAAaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
     <t>2023-11-30 02:05:56</t>
   </si>
   <si>
-    <t>1192427281</t>
-  </si>
-  <si>
-    <t>一百度的冰西瓜</t>
-  </si>
-  <si>
-    <t>血条是银色就用银剑，反之钢剑。</t>
-  </si>
-  <si>
     <t>2023-11-14 10:58:06</t>
   </si>
   <si>
-    <t>4408352</t>
-  </si>
-  <si>
-    <t>运命の蛙</t>
-  </si>
-  <si>
-    <t>血与酒3杀结局，女爵交互太少了，无法共情，还说杰洛特不如狗，就很别扭，女爵或许是个好妹妹，可在我眼里不是好统治者。</t>
-  </si>
-  <si>
     <t>2023-10-29 20:44:42</t>
   </si>
   <si>
-    <t>337831302</t>
-  </si>
-  <si>
-    <t>xehsdio</t>
-  </si>
-  <si>
-    <t>谁知道哪里怪物最多？</t>
-  </si>
-  <si>
     <t>2023-10-23 18:35:20</t>
   </si>
   <si>
-    <t>233129822</t>
-  </si>
-  <si>
-    <t>严力力</t>
-  </si>
-  <si>
-    <t>主线不更新了吗[笑哭]</t>
-  </si>
-  <si>
     <t>2023-10-12 12:22:57</t>
   </si>
   <si>
-    <t>1655092396</t>
-  </si>
-  <si>
-    <t>苏比克大魔王</t>
-  </si>
-  <si>
-    <t>紫雨这声音真是好听</t>
-  </si>
-  <si>
     <t>2023-10-11 11:50:32</t>
   </si>
   <si>
-    <t>28167400</t>
-  </si>
-  <si>
-    <t>Stephen_1115</t>
-  </si>
-  <si>
-    <t>西方套路贷的悲剧故事,艺术形式上做了美化,不过讲真的,写的很棒</t>
-  </si>
-  <si>
     <t>2023-09-12 17:22:12</t>
   </si>
   <si>
-    <t>268627454</t>
-  </si>
-  <si>
-    <t>windingjojo</t>
-  </si>
-  <si>
-    <t>才玩八小时怎么才五级，主线到了家家有本难念的经。。。</t>
-  </si>
-  <si>
     <t>2023-09-05 20:39:39</t>
   </si>
   <si>
-    <t>324843910</t>
-  </si>
-  <si>
-    <t>觅我于万千繁星</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>结局玩到采集曼德拉草的时候，真的觉得有点泪目，当初杰洛特初次遇到雷吉斯就是和丹德里恩，卓尔坦他们喝雷吉斯用曼德拉草酿的酒，可以说首尾呼应了，再配上雷吉斯最后说说的话，回首这一路经历，真的让人感慨万分。</t>
-  </si>
-  <si>
     <t>2023-08-14 17:25:01</t>
   </si>
   <si>
-    <t>345801829</t>
-  </si>
-  <si>
-    <t>一千0一岁</t>
-  </si>
-  <si>
-    <t>紫雨搞得这个视频我觉得比美剧猎魔人第三季好看，拍的啥啊</t>
-  </si>
-  <si>
     <t>2023-08-12 12:56:20</t>
   </si>
   <si>
-    <t>4958398</t>
-  </si>
-  <si>
-    <t>中单预言家</t>
-  </si>
-  <si>
-    <t>这游戏我买了好多年，没玩，也不能直播，可惜</t>
-  </si>
-  <si>
     <t>2023-08-12 07:46:58</t>
+  </si>
+  <si>
+    <t>消极</t>
+  </si>
+  <si>
+    <t>积极</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -792,7 +635,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -800,17 +643,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1106,1962 +967,2145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>257220196369</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2">
+        <v>697825268</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>133</v>
+      </c>
+      <c r="K2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>257807435712</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3">
+        <v>4982100</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>134</v>
+      </c>
+      <c r="K3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>256713029265</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
+      <c r="C4">
+        <v>1737701289</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="K4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>255533148433</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
+      <c r="C5">
+        <v>1449872692</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>136</v>
+      </c>
+      <c r="K5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>255975966832</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
+      <c r="C6">
+        <v>300233028</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>137</v>
+      </c>
+      <c r="K6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>255143609281</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
+      <c r="C7">
+        <v>16571997</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>138</v>
+      </c>
+      <c r="K7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>255401346384</v>
       </c>
-      <c r="C8" t="s">
-        <v>38</v>
+      <c r="C8">
+        <v>17899031</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>139</v>
+      </c>
+      <c r="K8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>254329739921</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
+      <c r="C9">
+        <v>159084986</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>140</v>
+      </c>
+      <c r="K9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>253672322624</v>
       </c>
-      <c r="C10" t="s">
-        <v>46</v>
+      <c r="C10">
+        <v>1569916120</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>141</v>
+      </c>
+      <c r="K10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>252477406528</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
+      <c r="C11">
+        <v>389685337</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>251507325841</v>
       </c>
-      <c r="C12" t="s">
-        <v>54</v>
+      <c r="C12">
+        <v>209395388</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>143</v>
+      </c>
+      <c r="K12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>251480273873</v>
       </c>
-      <c r="C13" t="s">
-        <v>58</v>
+      <c r="C13">
+        <v>1349956956</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F13">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>250809129568</v>
       </c>
-      <c r="C14" t="s">
-        <v>62</v>
+      <c r="C14">
+        <v>445962126</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>250136002545</v>
       </c>
-      <c r="C15" t="s">
-        <v>66</v>
+      <c r="C15">
+        <v>355690865</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>249258978257</v>
       </c>
-      <c r="C16" t="s">
-        <v>70</v>
+      <c r="C16">
+        <v>433540777</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F16">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>247813709744</v>
       </c>
-      <c r="C17" t="s">
-        <v>74</v>
+      <c r="C17">
+        <v>1167922546</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>246861822272</v>
       </c>
-      <c r="C18" t="s">
-        <v>78</v>
+      <c r="C18">
+        <v>160055236</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>245697470785</v>
       </c>
-      <c r="C19" t="s">
-        <v>82</v>
+      <c r="C19">
+        <v>87128555</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>245063912752</v>
       </c>
-      <c r="C20" t="s">
-        <v>86</v>
+      <c r="C20">
+        <v>8860735</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F20">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>151</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>243916784240</v>
       </c>
-      <c r="C21" t="s">
-        <v>90</v>
+      <c r="C21">
+        <v>32967902</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>152</v>
+      </c>
+      <c r="K21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>242416187632</v>
       </c>
-      <c r="C22" t="s">
-        <v>94</v>
+      <c r="C22">
+        <v>28512313</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>153</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>241783591793</v>
       </c>
-      <c r="C23" t="s">
-        <v>98</v>
+      <c r="C23">
+        <v>85691772</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F23">
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>241239200864</v>
       </c>
-      <c r="C24" t="s">
-        <v>102</v>
+      <c r="C24">
+        <v>3546611881872107</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>155</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>238846200608</v>
       </c>
-      <c r="C25" t="s">
-        <v>106</v>
+      <c r="C25">
+        <v>278092281</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F25">
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>156</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>237131635456</v>
       </c>
-      <c r="C26" t="s">
-        <v>74</v>
+      <c r="C26">
+        <v>1167922546</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F26">
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>157</v>
+      </c>
+      <c r="K26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>236312153968</v>
       </c>
-      <c r="C27" t="s">
-        <v>112</v>
+      <c r="C27">
+        <v>3493108492798688</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>158</v>
+      </c>
+      <c r="K27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>235788069296</v>
       </c>
-      <c r="C28" t="s">
-        <v>116</v>
+      <c r="C28">
+        <v>1845150042</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>118</v>
+        <v>73</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>159</v>
+      </c>
+      <c r="K28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>235079893824</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
+      <c r="C29">
+        <v>272937464</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F29">
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>160</v>
+      </c>
+      <c r="K29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>233863795152</v>
       </c>
-      <c r="C30" t="s">
-        <v>124</v>
+      <c r="C30">
+        <v>3546710376712558</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F30">
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>161</v>
+      </c>
+      <c r="K30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>230694750880</v>
       </c>
-      <c r="C31" t="s">
-        <v>128</v>
+      <c r="C31">
+        <v>406768837</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F31">
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>162</v>
+      </c>
+      <c r="K31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>230232913248</v>
       </c>
-      <c r="C32" t="s">
-        <v>132</v>
+      <c r="C32">
+        <v>479278033</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F32">
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>163</v>
+      </c>
+      <c r="K32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>227015712784</v>
       </c>
-      <c r="C33" t="s">
-        <v>136</v>
+      <c r="C33">
+        <v>695364788</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F33">
         <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="K33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>225479975424</v>
       </c>
-      <c r="C34" t="s">
-        <v>140</v>
+      <c r="C34">
+        <v>179648005</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F34">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>165</v>
+      </c>
+      <c r="K34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>222264088992</v>
       </c>
-      <c r="C35" t="s">
-        <v>144</v>
+      <c r="C35">
+        <v>53277986</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>222016535296</v>
       </c>
-      <c r="C36" t="s">
-        <v>148</v>
+      <c r="C36">
+        <v>471807823</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>167</v>
+      </c>
+      <c r="K36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>221437389504</v>
       </c>
-      <c r="C37" t="s">
-        <v>152</v>
+      <c r="C37">
+        <v>389611312</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F37">
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>168</v>
+      </c>
+      <c r="K37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>219397879184</v>
       </c>
-      <c r="C38" t="s">
-        <v>156</v>
+      <c r="C38">
+        <v>282944200</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F38">
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>169</v>
+      </c>
+      <c r="K38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>215655893296</v>
       </c>
-      <c r="C39" t="s">
-        <v>160</v>
+      <c r="C39">
+        <v>435417830</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F39">
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>170</v>
+      </c>
+      <c r="K39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>215346951952</v>
       </c>
-      <c r="C40" t="s">
-        <v>164</v>
+      <c r="C40">
+        <v>3435138</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F40">
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>171</v>
+      </c>
+      <c r="K40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>213929460944</v>
       </c>
-      <c r="C41" t="s">
-        <v>168</v>
+      <c r="C41">
+        <v>66899687</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F41">
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>172</v>
+      </c>
+      <c r="K41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>209325864256</v>
       </c>
-      <c r="C42" t="s">
-        <v>172</v>
+      <c r="C42">
+        <v>475773516</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>173</v>
+      </c>
+      <c r="K42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>208677499120</v>
       </c>
-      <c r="C43" t="s">
-        <v>176</v>
+      <c r="C43">
+        <v>30145723</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F43">
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>174</v>
+      </c>
+      <c r="K43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>207623742976</v>
       </c>
-      <c r="C44" t="s">
-        <v>180</v>
+      <c r="C44">
+        <v>524949635</v>
       </c>
       <c r="D44" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>175</v>
+      </c>
+      <c r="K44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>204482397536</v>
       </c>
-      <c r="C45" t="s">
-        <v>184</v>
+      <c r="C45">
+        <v>264531083</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F45">
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>200361994912</v>
       </c>
-      <c r="C46" t="s">
-        <v>188</v>
+      <c r="C46">
+        <v>5830474</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>177</v>
+      </c>
+      <c r="K46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>198682716416</v>
       </c>
-      <c r="C47" t="s">
-        <v>192</v>
+      <c r="C47">
+        <v>321697906</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F47">
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>178</v>
+      </c>
+      <c r="K47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>197742294336</v>
       </c>
-      <c r="C48" t="s">
-        <v>196</v>
+      <c r="C48">
+        <v>679219893</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>179</v>
+      </c>
+      <c r="K48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>197304045072</v>
       </c>
-      <c r="C49" t="s">
-        <v>200</v>
+      <c r="C49">
+        <v>425540067</v>
       </c>
       <c r="D49" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H49" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>180</v>
+      </c>
+      <c r="K49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>196502861600</v>
       </c>
-      <c r="C50" t="s">
-        <v>204</v>
+      <c r="C50">
+        <v>3461570824767513</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F50">
         <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>181</v>
+      </c>
+      <c r="K50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>196502918320</v>
       </c>
-      <c r="C51" t="s">
-        <v>204</v>
+      <c r="C51">
+        <v>3461570824767513</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F51">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H51" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>181</v>
+      </c>
+      <c r="K51" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>194329711520</v>
       </c>
-      <c r="C52" t="s">
-        <v>208</v>
+      <c r="C52">
+        <v>1192427281</v>
       </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H52" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>182</v>
+      </c>
+      <c r="K52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>192125912000</v>
       </c>
-      <c r="C53" t="s">
-        <v>212</v>
+      <c r="C53">
+        <v>4408352</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H53" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>183</v>
+      </c>
+      <c r="K53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>191287441088</v>
       </c>
-      <c r="C54" t="s">
-        <v>216</v>
+      <c r="C54">
+        <v>337831302</v>
       </c>
       <c r="D54" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H54" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>184</v>
+      </c>
+      <c r="K54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>189742032144</v>
       </c>
-      <c r="C55" t="s">
-        <v>220</v>
+      <c r="C55">
+        <v>233129822</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F55">
         <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>185</v>
+      </c>
+      <c r="K55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>189610772144</v>
       </c>
-      <c r="C56" t="s">
-        <v>224</v>
+      <c r="C56">
+        <v>1655092396</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F56">
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H56" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>186</v>
+      </c>
+      <c r="K56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>185620530352</v>
       </c>
-      <c r="C57" t="s">
-        <v>228</v>
+      <c r="C57">
+        <v>28167400</v>
       </c>
       <c r="D57" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H57" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>184677779472</v>
       </c>
-      <c r="C58" t="s">
-        <v>232</v>
+      <c r="C58">
+        <v>268627454</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>188</v>
+      </c>
+      <c r="K58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>180861607760</v>
       </c>
-      <c r="C59" t="s">
-        <v>236</v>
+      <c r="C59">
+        <v>324843910</v>
       </c>
       <c r="D59" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H59" t="s">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="I59">
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>189</v>
+      </c>
+      <c r="K59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>180452618784</v>
       </c>
-      <c r="C60" t="s">
-        <v>241</v>
+      <c r="C60">
+        <v>345801829</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F60">
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H60" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>190</v>
+      </c>
+      <c r="K60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>180409932576</v>
       </c>
-      <c r="C61" t="s">
-        <v>245</v>
+      <c r="C61">
+        <v>4958398</v>
       </c>
       <c r="D61" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F61">
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H61" t="s">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>248</v>
+        <v>191</v>
+      </c>
+      <c r="K61" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
